--- a/pred_ohlcv/54_21/2019-11-20 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-20 FCT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-28722.01701061946</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-28722.01701061946</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-28722.01701061946</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-28722.01701061946</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-48722.01701061946</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-48717.01701061946</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-48762.27171061945</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-48762.27171061945</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-33886.66981061945</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-33886.66981061945</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-33886.66981061945</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-33886.66981061945</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-35219.14151061945</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-35209.14151061945</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-35209.14151061945</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-35209.14151061945</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-35209.14151061945</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-35204.14151061945</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-81409.68551061946</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-81409.68551061946</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-111354.6855106195</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-138488.1701106195</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-131775.0699106194</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-131770.0699106194</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-131770.0699106194</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-131770.0699106194</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-124169.4961106194</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-124164.4961106194</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-135049.7883106194</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-198278.8439106194</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-126692.4222106194</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-126692.4222106194</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-201014.1369106194</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-201014.1369106194</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-201009.1369106194</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-201014.1369106194</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-211848.9123106195</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-231020.1917106195</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-165317.598279585</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-173335.992279585</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-172933.552079585</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-127788.489879585</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-137794.162679585</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-139354.162579585</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-135992.656079585</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-140944.391279585</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-83025.31937958498</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-6554.340479584978</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-81500.79897958497</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-81500.79897958497</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-87999.85687958497</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-87999.85687958497</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-75336.47377958498</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-75463.62047958498</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-75463.62047958498</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-58958.27577958498</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-46338.73847958498</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-58681.26567958498</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-34162.36647958498</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-14122.24837958498</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-17477.67887958498</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-17477.67887958498</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>3163.135220415019</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>3163.135220415019</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>3163.135220415019</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-2869.136379584981</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-2869.136379584981</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-2869.136379584981</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-2864.136379584981</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-2864.136379584981</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-23133.07267958498</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-22172.79637958498</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-22172.79637958498</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-11403.83187958498</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-77380.00447958498</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-64407.69077958498</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-8694.012957004337</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-8694.012957004337</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-8694.012957004337</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-8832.559457004338</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-24179.67805700434</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-23891.67805700434</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-24122.19155700434</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-24122.19155700434</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-24034.19155700434</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-53293.49985700434</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-48166.31575700434</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-48166.31575700434</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-68396.64085700434</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-68391.64085700434</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-73679.89985700435</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-78349.33415700434</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-78344.33415700434</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-78344.33415700434</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-78544.10175700435</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-78544.10175700435</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-63439.09285700435</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-63434.09285700435</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-103243.7482570044</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-340349.2762570044</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-338655.4802570044</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-338648.7892570044</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-338648.7892570044</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-338707.7892570044</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-339668.5699570044</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-340144.6072570044</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-338334.7022570044</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-350939.7442570044</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-350944.7442570044</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-350944.7442570044</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-370081.5755570044</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-347508.2280570045</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-347508.2280570045</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-347804.8382570044</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-347804.8382570044</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-347804.8382570044</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-347804.8382570044</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-347804.8382570044</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-347799.8382570044</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-347804.2382570045</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-347804.2382570045</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-347799.2382570045</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-347799.2382570045</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-340869.1439570044</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-292578.5099570043</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-292578.5099570043</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-292578.5099570043</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-418005.2165570043</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-414666.4899570043</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-534666.4899570043</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-634450.4513570043</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-20 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-20 FCT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-28722.01701061946</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-28722.01701061946</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-28722.01701061946</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-28722.01701061946</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-48722.01701061946</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-48717.01701061946</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-48762.27171061945</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-48762.27171061945</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-33886.66981061945</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-33886.66981061945</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-33886.66981061945</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-33886.66981061945</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-35219.14151061945</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-35209.14151061945</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-35209.14151061945</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-35209.14151061945</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-35209.14151061945</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-35204.14151061945</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-35204.14151061945</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-81409.68551061946</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-81409.68551061946</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-111354.6855106195</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-138488.1701106195</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-131775.0699106194</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-131770.0699106194</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-131770.0699106194</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-131770.0699106194</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-124169.4961106194</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-124164.4961106194</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-135049.7883106194</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-198278.8439106194</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-126692.4222106194</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-126692.4222106194</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-201014.1369106194</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-201014.1369106194</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-201009.1369106194</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-201014.1369106194</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-211848.9123106195</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-231020.1917106195</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-334989.6595106195</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-331758.4696106195</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-331763.4696106195</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-334994.303679585</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-334994.303679585</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-326975.677579585</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-326975.677579585</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-323538.253879585</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-323538.253879585</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-323538.253879585</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-165317.598279585</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-173335.992279585</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-172933.552079585</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-127788.489879585</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-137794.162679585</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-139354.162579585</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-135992.656079585</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-140944.391279585</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-83025.31937958498</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-6554.340479584978</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-81500.79897958497</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-66985.35047958497</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-87999.85687958497</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-87999.85687958497</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-87999.85687958497</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-94249.70137958498</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-77937.05657958498</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-28141.21997958498</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-75336.47377958498</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-51341.70097958498</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-49700.12617958498</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-49710.12617958498</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-75463.62047958498</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-51183.15497958498</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-61091.66807958498</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-61091.66807958498</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-55943.24437958498</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-54381.43197958498</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-54381.43197958498</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-17477.67887958498</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-17477.67887958498</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-13877.29327958498</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-10073.96677958498</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>3163.135220415019</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>3163.135220415019</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>3163.135220415019</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-2869.136379584981</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-2869.136379584981</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-2869.136379584981</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-2864.136379584981</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-2864.136379584981</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-23133.07267958498</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-22172.79637958498</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-22172.79637958498</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-11403.83187958498</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-77380.00447958498</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-64407.69077958498</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-59911.24095700434</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-38692.19155700433</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>4893.375042995664</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-8694.012957004337</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-8694.012957004337</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-8694.012957004337</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-8832.559457004338</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-24179.67805700434</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-23891.67805700434</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-24122.19155700434</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-24122.19155700434</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-24034.19155700434</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-53293.49985700434</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-48166.31575700434</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-48166.31575700434</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-68396.64085700434</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-68391.64085700434</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-73679.89985700435</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-78349.33415700434</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-78344.33415700434</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-78344.33415700434</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-78544.10175700435</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-78544.10175700435</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-63434.91095700435</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-63439.09285700435</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-63434.09285700435</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-103243.7482570044</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-97275.69225700437</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-123425.0752570044</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-340349.2762570044</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-338655.4802570044</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-338648.7892570044</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-338648.7892570044</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-338707.7892570044</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-339668.5699570044</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-340144.6072570044</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-338334.7022570044</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-350939.7442570044</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-350944.7442570044</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-350944.7442570044</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-370081.5755570044</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-347508.2280570045</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-347508.2280570045</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-347804.8382570044</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-347804.8382570044</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-347804.8382570044</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-330230.4661570045</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-292578.5099570043</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-292578.5099570043</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-292578.5099570043</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-534666.4899570043</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-594561.0204570043</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-590054.2429570043</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-590054.2429570043</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-598525.0998570044</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-597684.8906570043</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-597684.8906570043</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-897684.8906570043</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-297674.8906570043</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-511758.3868236711</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-511758.3868236711</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-511761.3868236711</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
